--- a/Configs/EffectAxis.xlsx
+++ b/Configs/EffectAxis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202404\Booom\Configs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Booom\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CEBE6A8-56D5-498D-81BB-81028559FF0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D6EDCA-BF44-4325-B5B9-83246C909FAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5738" yWindow="3420" windowWidth="21600" windowHeight="11873" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -252,7 +252,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -588,17 +588,17 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="2" max="2" width="16.73046875" customWidth="1"/>
-    <col min="4" max="4" width="11.46484375" customWidth="1"/>
-    <col min="5" max="5" width="8.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -615,7 +615,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -632,7 +632,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -649,7 +649,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>21001</v>
       </c>
@@ -662,11 +662,11 @@
       <c r="D4">
         <v>20</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>21101</v>
       </c>
@@ -679,11 +679,11 @@
       <c r="D5">
         <v>20</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>21002</v>
       </c>
@@ -696,11 +696,11 @@
       <c r="D6">
         <v>50</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>21102</v>
       </c>
@@ -713,11 +713,11 @@
       <c r="D7">
         <v>50</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>21003</v>
       </c>
@@ -730,11 +730,11 @@
       <c r="D8">
         <v>70</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>21103</v>
       </c>
@@ -747,11 +747,11 @@
       <c r="D9">
         <v>70</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10">
         <f>A4+1000</f>
         <v>22001</v>
@@ -765,11 +765,11 @@
       <c r="D10">
         <v>30</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11">
         <f t="shared" ref="A11:A15" si="0">A5+1000</f>
         <v>22101</v>
@@ -783,11 +783,11 @@
       <c r="D11">
         <v>30</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>22002</v>
@@ -801,11 +801,11 @@
       <c r="D12">
         <v>60</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>22102</v>
@@ -819,11 +819,11 @@
       <c r="D13">
         <v>60</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>22003</v>
@@ -837,11 +837,11 @@
       <c r="D14">
         <v>90</v>
       </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>22103</v>
@@ -855,11 +855,11 @@
       <c r="D15">
         <v>90</v>
       </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16">
         <f>A4+2000</f>
         <v>23001</v>
@@ -873,11 +873,11 @@
       <c r="D16">
         <v>10</v>
       </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17">
         <f t="shared" ref="A17:A21" si="1">A5+2000</f>
         <v>23101</v>
@@ -891,11 +891,11 @@
       <c r="D17">
         <v>10</v>
       </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18">
         <f t="shared" si="1"/>
         <v>23002</v>
@@ -909,11 +909,11 @@
       <c r="D18">
         <v>35</v>
       </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19">
         <f t="shared" si="1"/>
         <v>23102</v>
@@ -927,11 +927,11 @@
       <c r="D19">
         <v>35</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20">
         <f t="shared" si="1"/>
         <v>23003</v>
@@ -945,11 +945,11 @@
       <c r="D20">
         <v>75</v>
       </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21">
         <f t="shared" si="1"/>
         <v>23103</v>
@@ -963,11 +963,11 @@
       <c r="D21">
         <v>75</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22">
         <f>A4+3000</f>
         <v>24001</v>
@@ -981,11 +981,11 @@
       <c r="D22">
         <v>45</v>
       </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23">
         <f t="shared" ref="A23:A27" si="2">A5+3000</f>
         <v>24101</v>
@@ -999,11 +999,11 @@
       <c r="D23">
         <v>45</v>
       </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24">
         <f t="shared" si="2"/>
         <v>24002</v>
@@ -1017,11 +1017,11 @@
       <c r="D24">
         <v>65</v>
       </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25">
         <f t="shared" si="2"/>
         <v>24102</v>
@@ -1035,11 +1035,11 @@
       <c r="D25">
         <v>65</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26">
         <f t="shared" si="2"/>
         <v>24003</v>
@@ -1053,11 +1053,11 @@
       <c r="D26">
         <v>85</v>
       </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27">
         <f t="shared" si="2"/>
         <v>24103</v>
@@ -1071,7 +1071,7 @@
       <c r="D27">
         <v>85</v>
       </c>
-      <c r="E27">
+      <c r="E27" t="b">
         <v>1</v>
       </c>
     </row>

--- a/Configs/EffectAxis.xlsx
+++ b/Configs/EffectAxis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Booom\Configs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202404\Booom\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D6EDCA-BF44-4325-B5B9-83246C909FAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF950464-7FCD-4E67-91C9-ACF31982BCCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4192" yWindow="3458" windowWidth="20386" windowHeight="11872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -112,8 +112,8 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-0：负面作用
-1：正面作用</t>
+FALSE：负面作用
+TRUE：正面作用</t>
         </r>
       </text>
     </comment>
@@ -252,7 +252,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -588,17 +588,17 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="16.77734375" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1"/>
-    <col min="5" max="5" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.796875" customWidth="1"/>
+    <col min="4" max="4" width="11.46484375" customWidth="1"/>
+    <col min="5" max="5" width="8.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -615,7 +615,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -632,7 +632,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -649,7 +649,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>21001</v>
       </c>
@@ -666,7 +666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>21101</v>
       </c>
@@ -683,7 +683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>21002</v>
       </c>
@@ -700,7 +700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>21102</v>
       </c>
@@ -717,7 +717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>21003</v>
       </c>
@@ -734,7 +734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>21103</v>
       </c>
@@ -751,7 +751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10">
         <f>A4+1000</f>
         <v>22001</v>
@@ -769,7 +769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11">
         <f t="shared" ref="A11:A15" si="0">A5+1000</f>
         <v>22101</v>
@@ -787,7 +787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>22002</v>
@@ -805,7 +805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>22102</v>
@@ -823,7 +823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>22003</v>
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>22103</v>
@@ -859,7 +859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16">
         <f>A4+2000</f>
         <v>23001</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17">
         <f t="shared" ref="A17:A21" si="1">A5+2000</f>
         <v>23101</v>
@@ -895,7 +895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18">
         <f t="shared" si="1"/>
         <v>23002</v>
@@ -913,7 +913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19">
         <f t="shared" si="1"/>
         <v>23102</v>
@@ -931,7 +931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20">
         <f t="shared" si="1"/>
         <v>23003</v>
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21">
         <f t="shared" si="1"/>
         <v>23103</v>
@@ -967,7 +967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22">
         <f>A4+3000</f>
         <v>24001</v>
@@ -985,7 +985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23">
         <f t="shared" ref="A23:A27" si="2">A5+3000</f>
         <v>24101</v>
@@ -1003,7 +1003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24">
         <f t="shared" si="2"/>
         <v>24002</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25">
         <f t="shared" si="2"/>
         <v>24102</v>
@@ -1039,7 +1039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26">
         <f t="shared" si="2"/>
         <v>24003</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27">
         <f t="shared" si="2"/>
         <v>24103</v>

--- a/Configs/EffectAxis.xlsx
+++ b/Configs/EffectAxis.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202404\Booom\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF950464-7FCD-4E67-91C9-ACF31982BCCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D8A228-E96C-493C-B32F-0CCF1F92C294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4192" yWindow="3458" windowWidth="20386" windowHeight="11872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22470" yWindow="4050" windowWidth="19190" windowHeight="10790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$1:$E$27</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -588,7 +591,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1076,6 +1079,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="E1:E27" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Configs/EffectAxis.xlsx
+++ b/Configs/EffectAxis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202404\Booom\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D8A228-E96C-493C-B32F-0CCF1F92C294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676F3151-16B6-4C9A-9030-9D1096EC0F61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22470" yWindow="4050" windowWidth="19190" windowHeight="10790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3945" yWindow="2625" windowWidth="21600" windowHeight="11872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -591,7 +591,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>

--- a/Configs/EffectAxis.xlsx
+++ b/Configs/EffectAxis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202404\Booom\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676F3151-16B6-4C9A-9030-9D1096EC0F61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C9AA17-BEAC-466F-BF05-991DC76634BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3945" yWindow="2625" windowWidth="21600" windowHeight="11872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3195" yWindow="848" windowWidth="25102" windowHeight="12907" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -86,10 +86,10 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-1：属性1
-2：属性2
-3：属性3
-4：属性4</t>
+1：属性1 阳
+2：属性2 阴
+3：属性3 热
+4：属性4 寒</t>
         </r>
       </text>
     </comment>
@@ -591,12 +591,13 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="16.796875" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="11.46484375" customWidth="1"/>
     <col min="5" max="5" width="8.796875" bestFit="1" customWidth="1"/>
   </cols>
@@ -663,7 +664,7 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>-40</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -680,7 +681,7 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>-40</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -697,7 +698,7 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
@@ -714,7 +715,7 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -731,7 +732,7 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
@@ -748,7 +749,7 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -766,7 +767,7 @@
         <v>2</v>
       </c>
       <c r="D10">
-        <v>30</v>
+        <v>-32</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
@@ -784,7 +785,7 @@
         <v>2</v>
       </c>
       <c r="D11">
-        <v>30</v>
+        <v>-32</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -802,7 +803,7 @@
         <v>2</v>
       </c>
       <c r="D12">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
@@ -820,7 +821,7 @@
         <v>2</v>
       </c>
       <c r="D13">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -838,7 +839,7 @@
         <v>2</v>
       </c>
       <c r="D14">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
@@ -856,7 +857,7 @@
         <v>2</v>
       </c>
       <c r="D15">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
@@ -874,7 +875,7 @@
         <v>3</v>
       </c>
       <c r="D16">
-        <v>10</v>
+        <v>-28</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
@@ -892,7 +893,7 @@
         <v>3</v>
       </c>
       <c r="D17">
-        <v>10</v>
+        <v>-28</v>
       </c>
       <c r="E17" t="b">
         <v>1</v>
@@ -910,7 +911,7 @@
         <v>3</v>
       </c>
       <c r="D18">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
@@ -928,7 +929,7 @@
         <v>3</v>
       </c>
       <c r="D19">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E19" t="b">
         <v>1</v>
@@ -946,7 +947,7 @@
         <v>3</v>
       </c>
       <c r="D20">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
@@ -964,7 +965,7 @@
         <v>3</v>
       </c>
       <c r="D21">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="E21" t="b">
         <v>1</v>
@@ -982,7 +983,7 @@
         <v>4</v>
       </c>
       <c r="D22">
-        <v>45</v>
+        <v>-24</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
@@ -1000,7 +1001,7 @@
         <v>4</v>
       </c>
       <c r="D23">
-        <v>45</v>
+        <v>-24</v>
       </c>
       <c r="E23" t="b">
         <v>1</v>
@@ -1018,7 +1019,7 @@
         <v>4</v>
       </c>
       <c r="D24">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -1036,7 +1037,7 @@
         <v>4</v>
       </c>
       <c r="D25">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="E25" t="b">
         <v>1</v>
@@ -1054,7 +1055,7 @@
         <v>4</v>
       </c>
       <c r="D26">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
@@ -1072,7 +1073,7 @@
         <v>4</v>
       </c>
       <c r="D27">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="E27" t="b">
         <v>1</v>

--- a/Configs/EffectAxis.xlsx
+++ b/Configs/EffectAxis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202404\Booom\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C9AA17-BEAC-466F-BF05-991DC76634BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B980D5-99C8-483C-A648-A6712A1FD4F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3195" yWindow="848" windowWidth="25102" windowHeight="12907" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6067" yWindow="2175" windowWidth="25103" windowHeight="12907" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -179,76 +179,100 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>属性一正面2</t>
-  </si>
-  <si>
-    <t>属性一负面2</t>
-  </si>
-  <si>
-    <t>属性一正面3</t>
-  </si>
-  <si>
-    <t>属性一负面3</t>
-  </si>
-  <si>
-    <t>属性二正面1</t>
-  </si>
-  <si>
-    <t>属性二负面1</t>
-  </si>
-  <si>
-    <t>属性二正面2</t>
-  </si>
-  <si>
-    <t>属性二负面2</t>
-  </si>
-  <si>
-    <t>属性二正面3</t>
-  </si>
-  <si>
-    <t>属性二负面3</t>
-  </si>
-  <si>
-    <t>属性三正面1</t>
-  </si>
-  <si>
-    <t>属性三负面1</t>
-  </si>
-  <si>
-    <t>属性三正面2</t>
-  </si>
-  <si>
-    <t>属性三负面2</t>
-  </si>
-  <si>
-    <t>属性三正面3</t>
-  </si>
-  <si>
-    <t>属性三负面3</t>
-  </si>
-  <si>
-    <t>属性四正面1</t>
-  </si>
-  <si>
-    <t>属性四负面1</t>
-  </si>
-  <si>
-    <t>属性四正面2</t>
-  </si>
-  <si>
-    <t>属性四负面2</t>
-  </si>
-  <si>
-    <t>属性四正面3</t>
-  </si>
-  <si>
-    <t>属性四负面3</t>
-  </si>
-  <si>
-    <t>属性一正面1</t>
-  </si>
-  <si>
-    <t>属性一负面1</t>
+    <t>清热泻火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盗汗口干</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安神去躁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头晕目眩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提神醒脑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>充沛活力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失眠不寐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心悸体虚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抑郁烦闷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>养神安眠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平息静气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四肢无力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提振食欲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>听力下降</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咽肿喉痛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴躁易怒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四体不寒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精神大振</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头疼欲裂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风寒流涕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解暑止泻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>健脾养胃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固表止汗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>口苦嘴臭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -591,15 +615,15 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="16.796875" customWidth="1"/>
+    <col min="2" max="2" width="19.1328125" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="11.46484375" customWidth="1"/>
-    <col min="5" max="5" width="8.796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
@@ -658,7 +682,7 @@
         <v>21001</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -675,7 +699,7 @@
         <v>21101</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -692,7 +716,7 @@
         <v>21002</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -709,7 +733,7 @@
         <v>21102</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -726,7 +750,7 @@
         <v>21003</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -743,7 +767,7 @@
         <v>21103</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -761,7 +785,7 @@
         <v>22001</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -779,7 +803,7 @@
         <v>22101</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -815,7 +839,7 @@
         <v>22102</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -833,7 +857,7 @@
         <v>22003</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -851,7 +875,7 @@
         <v>22103</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -869,7 +893,7 @@
         <v>23001</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>3</v>
@@ -887,7 +911,7 @@
         <v>23101</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C17">
         <v>3</v>
@@ -905,7 +929,7 @@
         <v>23002</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C18">
         <v>3</v>
@@ -923,7 +947,7 @@
         <v>23102</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C19">
         <v>3</v>
@@ -959,7 +983,7 @@
         <v>23103</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C21">
         <v>3</v>
@@ -977,7 +1001,7 @@
         <v>24001</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C22">
         <v>4</v>
@@ -995,7 +1019,7 @@
         <v>24101</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>4</v>
@@ -1031,7 +1055,7 @@
         <v>24102</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C25">
         <v>4</v>
@@ -1049,7 +1073,7 @@
         <v>24003</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C26">
         <v>4</v>
@@ -1067,7 +1091,7 @@
         <v>24103</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C27">
         <v>4</v>

--- a/Configs/EffectAxis.xlsx
+++ b/Configs/EffectAxis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202404\Booom\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B980D5-99C8-483C-A648-A6712A1FD4F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A5B758-7B9E-4C5A-8BB4-E71232B7B5E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6067" yWindow="2175" windowWidth="25103" windowHeight="12907" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14240" yWindow="4700" windowWidth="13670" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -615,7 +615,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
